--- a/G_Store Access.xlsx
+++ b/G_Store Access.xlsx
@@ -12,44 +12,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>Test ID</t>
   </si>
   <si>
-    <t>G</t>
+    <t>User Stories</t>
   </si>
   <si>
     <t>G01</t>
   </si>
   <si>
-    <t>User Stories</t>
-  </si>
-  <si>
     <t>As a novice user, I want to be able to easily access the store, so that I can spend the points that I earn from playing the game.</t>
   </si>
   <si>
     <t>As an expert user, I want to be able to easily access the store so that I can purchase more lives, and upgrades to continue playing the game.</t>
   </si>
   <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC </t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
     <t>Test Owner</t>
   </si>
   <si>
-    <t>Approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC </t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>RP</t>
-  </si>
-  <si>
     <t>Julia Wilkinson</t>
   </si>
   <si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Test to see if the player can easily access the store</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
   <si>
     <t>Procedure</t>
@@ -126,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -144,15 +147,19 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
-      <color theme="1"/>
+      <b/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -174,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -223,6 +230,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -234,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -244,75 +265,81 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -529,6 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -540,76 +568,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -630,24 +661,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>7</v>
+      <c r="A2" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>12</v>
@@ -655,28 +686,28 @@
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -684,15 +715,15 @@
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -700,190 +731,205 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="24">
+      <c r="D8" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26">
         <v>1.0</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="B9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="24">
+      <c r="C9" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="26">
         <v>2.0</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="27">
+      <c r="C10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="29">
         <v>3.0</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="27">
+      <c r="C11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="29">
         <v>4.0</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="27">
+      <c r="C12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="29">
         <v>5.0</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="27">
+      <c r="C13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="29">
         <v>6.0</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15">
-      <c r="E15" s="11"/>
+      <c r="A15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16">
-      <c r="E16" s="11"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17">
-      <c r="E17" s="11"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18">
-      <c r="E18" s="11"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19">
-      <c r="E19" s="11"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20">
-      <c r="E20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21">
-      <c r="E21" s="11"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22">
-      <c r="E22" s="11"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="12"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/G_Store Access.xlsx
+++ b/G_Store Access.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliawilkinson/Documents/Fall 2019/Eclipse Workspace/WaveGame2019/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966CBD31-2C7E-BB42-97D1-4F3BBB3EB082}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Stories" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Test G01" sheetId="2" r:id="rId5"/>
+    <sheet name="Stories" sheetId="1" r:id="rId1"/>
+    <sheet name="Test G01" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -123,41 +132,59 @@
   </si>
   <si>
     <t>TC, RP</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Message popup</t>
+  </si>
+  <si>
+    <t>Player sees message to go to store</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -166,7 +193,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -182,62 +209,85 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -247,119 +297,110 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -549,21 +590,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,19 +617,19 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -597,340 +641,435 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="36.71"/>
-    <col customWidth="1" min="4" max="4" width="7.14"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="E8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="D9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="18">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="D10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="20">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="29">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="D11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="20">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="29">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="D12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="20">
+        <v>5</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="20">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="29">
-        <v>6.0</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="D14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="20">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="D15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16">
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17">
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18">
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19">
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20">
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21">
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22">
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23">
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="12"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="12"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>